--- a/branches/update-code-systems/ValueSet-vs-condition.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/ValueSet-vs-condition.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-condition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
